--- a/bin/excel/SpanishEnglish-VERBS6.xlsx
+++ b/bin/excel/SpanishEnglish-VERBS6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\NetBeansProjects\Produccion1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5914BA-7BD8-49CF-9C0F-D4C7B39E14B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70F38AD-B4C2-4225-A6FC-B09680E4CF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="106">
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>inglés</t>
-  </si>
-  <si>
     <t>breathe</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>compose</t>
   </si>
   <si>
-    <t>desechar</t>
-  </si>
-  <si>
     <t>encontrar</t>
   </si>
   <si>
@@ -258,12 +252,6 @@
     <t>derribar</t>
   </si>
   <si>
-    <t>bijeiv</t>
-  </si>
-  <si>
-    <t>difer</t>
-  </si>
-  <si>
     <t>riesain</t>
   </si>
   <si>
@@ -273,9 +261,6 @@
     <t>dieserv</t>
   </si>
   <si>
-    <t>inshur</t>
-  </si>
-  <si>
     <t>brif</t>
   </si>
   <si>
@@ -288,9 +273,6 @@
     <t>takol</t>
   </si>
   <si>
-    <t>iksid</t>
-  </si>
-  <si>
     <t>aword</t>
   </si>
   <si>
@@ -298,6 +280,78 @@
   </si>
   <si>
     <t>verri</t>
+  </si>
+  <si>
+    <t>deit</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>moneder</t>
+  </si>
+  <si>
+    <t>bij'eif</t>
+  </si>
+  <si>
+    <t>kempr'ais</t>
+  </si>
+  <si>
+    <t>kemp'ous</t>
+  </si>
+  <si>
+    <t>ouvercom</t>
+  </si>
+  <si>
+    <t>reinsh</t>
+  </si>
+  <si>
+    <t>sueng</t>
+  </si>
+  <si>
+    <t>diefer</t>
+  </si>
+  <si>
+    <t>rrosh</t>
+  </si>
+  <si>
+    <t>est'or</t>
+  </si>
+  <si>
+    <t>ueist</t>
+  </si>
+  <si>
+    <t>kempit</t>
+  </si>
+  <si>
+    <t>faind</t>
+  </si>
+  <si>
+    <t>maunt</t>
+  </si>
+  <si>
+    <t>u'isper</t>
+  </si>
+  <si>
+    <t>ash'or</t>
+  </si>
+  <si>
+    <t>daubt</t>
+  </si>
+  <si>
+    <t>cis</t>
+  </si>
+  <si>
+    <t>esl'aid</t>
+  </si>
+  <si>
+    <t>inshoor</t>
+  </si>
+  <si>
+    <t>eks'id</t>
+  </si>
+  <si>
+    <t>desperdiciar</t>
   </si>
 </sst>
 </file>
@@ -657,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E80C80-05A9-4CA4-AEA0-B97E37B4C112}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,13 +726,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -700,13 +754,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,13 +768,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -742,13 +796,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
         <v>64</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -784,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,13 +852,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -812,13 +866,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,13 +894,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,13 +908,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,13 +936,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,13 +964,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -924,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -980,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -994,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1022,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1064,13 +1118,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1078,13 +1132,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,13 +1146,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,13 +1188,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1148,13 +1202,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/bin/excel/SpanishEnglish-VERBS6.xlsx
+++ b/bin/excel/SpanishEnglish-VERBS6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70F38AD-B4C2-4225-A6FC-B09680E4CF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9CC1B3-2C09-4A29-A690-9FB755B27EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
   </bookViews>
@@ -261,9 +261,6 @@
     <t>dieserv</t>
   </si>
   <si>
-    <t>brif</t>
-  </si>
-  <si>
     <t>gerenti</t>
   </si>
   <si>
@@ -352,6 +349,9 @@
   </si>
   <si>
     <t>desperdiciar</t>
+  </si>
+  <si>
+    <t>bref</t>
   </si>
 </sst>
 </file>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E80C80-05A9-4CA4-AEA0-B97E37B4C112}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>62</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>63</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>41</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>43</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>46</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>47</v>
@@ -964,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>48</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>65</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>49</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>52</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>67</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>70</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>53</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>54</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>56</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>57</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>71</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>58</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>59</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>60</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>69</v>
